--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschastevens/Desktop/SurfURS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C00B5E9E-83AA-D64E-989A-25EEBE4F545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F137A6E-AA5F-8B49-B2F8-BEF71393C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>MAY</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>* Cutting Foam --&gt; Produce ~18       * Getting key from Tracy                 * Meetings: URS 9am &amp; 2:30 pm</t>
+  </si>
+  <si>
+    <t>* Adding Balsa Stringers --&gt; 20        * Began Abaqus Simulation</t>
+  </si>
+  <si>
+    <t>* Sascha Out Sick                              * Abaqus Simulation Continued</t>
+  </si>
+  <si>
+    <t>* Abaqus Simulation Continued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Got SME 420 Keys (Sascha  $40)   * Cut stringers - Prepared for layup * Abaqus simulation continued         * Cohort Meeting 4-5PM Complete? </t>
   </si>
 </sst>
 </file>
@@ -3684,8 +3696,8 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3827,10 +3839,16 @@
       <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
@@ -3863,7 +3881,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="70" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
